--- a/survivorPoolCalc.xlsx
+++ b/survivorPoolCalc.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SurvivorPoolNLP\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="114">
   <si>
     <t>Team</t>
   </si>
@@ -400,6 +400,36 @@
   </si>
   <si>
     <t>Cum Prob</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>(+1.5)</t>
+  </si>
+  <si>
+    <t>(-6)</t>
+  </si>
+  <si>
+    <t>(-5)</t>
+  </si>
+  <si>
+    <t>(-8)</t>
+  </si>
+  <si>
+    <t>(-8.5)</t>
+  </si>
+  <si>
+    <t>(+6)</t>
+  </si>
+  <si>
+    <t>(-4)</t>
+  </si>
+  <si>
+    <t>Jagurars</t>
   </si>
 </sst>
 </file>
@@ -410,7 +440,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +469,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +493,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -516,12 +558,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -591,13 +642,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -626,7 +670,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -704,10 +747,10 @@
                   <c:v>0.74099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
@@ -792,46 +835,46 @@
                   <c:v>0.38270945699999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19135472849999999</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5677364249999994E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7838682124999997E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3919341062499998E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1959670531249999E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9798352656249996E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9899176328124998E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4949588164062499E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4747940820312495E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7373970410156248E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8686985205078124E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3434926025390619E-5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6717463012695309E-5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3358731506347655E-5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,11 +890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="362107176"/>
-        <c:axId val="362108352"/>
+        <c:axId val="269221808"/>
+        <c:axId val="269320312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="362107176"/>
+        <c:axId val="269221808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362108352"/>
+        <c:crossAx val="269320312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -901,7 +944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362108352"/>
+        <c:axId val="269320312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362107176"/>
+        <c:crossAx val="269221808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -966,7 +1009,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1664,7 +1706,9 @@
     <tableColumn id="3" name="Week 2" dataCellStyle="Percent">
       <calculatedColumnFormula>INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Week 3" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="Week 3" dataCellStyle="Percent">
+      <calculatedColumnFormula>INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" name="Week 4" dataCellStyle="Percent"/>
     <tableColumn id="6" name="Week 5" dataCellStyle="Percent"/>
     <tableColumn id="7" name="Week 6" dataCellStyle="Percent"/>
@@ -1685,10 +1729,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B4:S36" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B4:S36" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="B4:S36"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Team" dataDxfId="0"/>
+    <tableColumn id="1" name="Team" dataDxfId="1"/>
     <tableColumn id="2" name="Week 1"/>
     <tableColumn id="3" name="Week 2"/>
     <tableColumn id="4" name="Week 3"/>
@@ -1974,6 +2018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2008,10 +2053,1291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A3:Y36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="20" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-2.5</v>
+      </c>
+      <c r="G5">
+        <v>-3.5</v>
+      </c>
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="F6">
+        <v>5.5</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-3.5</v>
+      </c>
+      <c r="I6">
+        <v>3.5</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>-3</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <v>-7</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>-3</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9">
+        <v>-2.5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>99</v>
+      </c>
+      <c r="G9">
+        <v>-2.5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>99</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>-1.5</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>-3.5</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>-3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>-4.5</v>
+      </c>
+      <c r="F12">
+        <v>-4.5</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>4.5</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>-6</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>-5.5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>-5.5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>99</v>
+      </c>
+      <c r="I13" s="9">
+        <v>99</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="W13" t="s">
+        <v>53</v>
+      </c>
+      <c r="X13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>-4</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-7</v>
+      </c>
+      <c r="H14">
+        <v>-6.5</v>
+      </c>
+      <c r="I14">
+        <v>-4.5</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>-1.5</v>
+      </c>
+      <c r="I15">
+        <v>-5</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W15" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>-4</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-5.5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>-5.5</v>
+      </c>
+      <c r="I16">
+        <v>-5.5</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="F17">
+        <v>-6.5</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>-3.5</v>
+      </c>
+      <c r="K17">
+        <v>-3</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="W17" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>-1.5</v>
+      </c>
+      <c r="E18">
+        <v>-7.5</v>
+      </c>
+      <c r="F18">
+        <v>-5</v>
+      </c>
+      <c r="G18">
+        <v>-10.5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>-5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W18" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>11.5</v>
+      </c>
+      <c r="G19">
+        <v>10.5</v>
+      </c>
+      <c r="H19">
+        <v>3.5</v>
+      </c>
+      <c r="I19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>5.5</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>-4</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>-2</v>
+      </c>
+      <c r="E21">
+        <v>-4</v>
+      </c>
+      <c r="F21">
+        <v>-2</v>
+      </c>
+      <c r="G21">
+        <v>-3.5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>99</v>
+      </c>
+      <c r="I21">
+        <v>-3</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>4.5</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22" s="9">
+        <v>99</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>-6.5</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>-11.5</v>
+      </c>
+      <c r="G23" s="9">
+        <v>99</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>-6.5</v>
+      </c>
+      <c r="F24" s="9">
+        <v>99</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>-3.5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>5.5</v>
+      </c>
+      <c r="E25">
+        <v>-3.5</v>
+      </c>
+      <c r="F25">
+        <v>-2</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>-2</v>
+      </c>
+      <c r="E26">
+        <v>7.5</v>
+      </c>
+      <c r="F26">
+        <v>2.5</v>
+      </c>
+      <c r="G26">
+        <v>3.5</v>
+      </c>
+      <c r="H26" s="9">
+        <v>99</v>
+      </c>
+      <c r="I26">
+        <v>-2</v>
+      </c>
+      <c r="K26">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>3.5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>6.5</v>
+      </c>
+      <c r="I27" s="9">
+        <v>99</v>
+      </c>
+      <c r="K27">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>-2</v>
+      </c>
+      <c r="F28">
+        <v>-2.5</v>
+      </c>
+      <c r="G28">
+        <v>-2.5</v>
+      </c>
+      <c r="H28">
+        <v>1.5</v>
+      </c>
+      <c r="I28">
+        <v>-4</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>6.5</v>
+      </c>
+      <c r="E29">
+        <v>-2.5</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>-2.5</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>-2.5</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>-1.5</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>-6</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>5.5</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>-3.5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>-9</v>
+      </c>
+      <c r="G31">
+        <v>-6</v>
+      </c>
+      <c r="H31">
+        <v>-2</v>
+      </c>
+      <c r="I31">
+        <v>-8</v>
+      </c>
+      <c r="J31">
+        <v>-1.5</v>
+      </c>
+      <c r="K31">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>-4.5</v>
+      </c>
+      <c r="E32">
+        <v>2.5</v>
+      </c>
+      <c r="F32">
+        <v>2.5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>99</v>
+      </c>
+      <c r="I32">
+        <v>-2</v>
+      </c>
+      <c r="J32">
+        <v>1.5</v>
+      </c>
+      <c r="K32">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>3.5</v>
+      </c>
+      <c r="E33">
+        <v>-2</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <v>3.5</v>
+      </c>
+      <c r="H33">
+        <v>5.5</v>
+      </c>
+      <c r="I33" s="9">
+        <v>99</v>
+      </c>
+      <c r="J33">
+        <v>-6</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>-3</v>
+      </c>
+      <c r="E34">
+        <v>6.5</v>
+      </c>
+      <c r="F34">
+        <v>6.5</v>
+      </c>
+      <c r="G34">
+        <v>2.5</v>
+      </c>
+      <c r="H34">
+        <v>-3.5</v>
+      </c>
+      <c r="I34" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>4.5</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" s="9">
+        <v>99</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>-2.5</v>
+      </c>
+      <c r="H36">
+        <v>3.5</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B4:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,11 +3409,59 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5">
-        <v>-3</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
+      <c r="D5" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.54</v>
+      </c>
+      <c r="E5" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F5" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -2097,11 +3471,59 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
+      <c r="D6" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2111,11 +3533,59 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
+      <c r="D7" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.54</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2125,11 +3595,59 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8">
-        <v>1.5</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="D8" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.45</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2139,11 +3657,59 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
-        <v>-2.5</v>
+      <c r="D9" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E9" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F9" s="1" t="e">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2153,11 +3719,59 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="D10" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2167,11 +3781,59 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D11">
-        <v>-3.5</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
+      <c r="D11" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.54</v>
+      </c>
+      <c r="F11" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.46</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2181,11 +3843,59 @@
       <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>-4.5</v>
+      <c r="D12" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.45</v>
+      </c>
+      <c r="E12" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F12" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
@@ -2195,11 +3905,59 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13">
-        <v>-5.5</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
+      <c r="D13" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E13" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.45</v>
+      </c>
+      <c r="F13" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
@@ -2209,11 +3967,59 @@
       <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="D14">
-        <v>-4</v>
-      </c>
-      <c r="E14">
-        <v>-1</v>
+      <c r="D14" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E14" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F14" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -2223,11 +4029,59 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15">
-        <v>1.5</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="D15" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -2237,1049 +4091,6 @@
       <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16">
-        <v>-4</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-      <c r="E17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>-1.5</v>
-      </c>
-      <c r="E18">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>-2</v>
-      </c>
-      <c r="E21">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22">
-        <v>4.5</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>-6.5</v>
-      </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>5.5</v>
-      </c>
-      <c r="E25">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>-2</v>
-      </c>
-      <c r="E26">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27">
-        <v>3.5</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>-1</v>
-      </c>
-      <c r="E28">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29">
-        <v>6.5</v>
-      </c>
-      <c r="E29">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30">
-        <v>-1.5</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31">
-        <v>-3.5</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32">
-        <v>-4.5</v>
-      </c>
-      <c r="E32">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33">
-        <v>3.5</v>
-      </c>
-      <c r="E33">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>-3</v>
-      </c>
-      <c r="E34">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:T36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="20" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.54</v>
-      </c>
-      <c r="E5" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E9" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E11" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.54</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.45</v>
-      </c>
-      <c r="E12" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="E13" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.45</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E14" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="E15" s="1">
-        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="1">
         <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 1]],ptSpread,0))</f>
         <v>0.67400000000000004</v>
@@ -3289,7 +4100,8 @@
         <v>0.57099999999999995</v>
       </c>
       <c r="F16" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.69699999999999995</v>
       </c>
       <c r="G16" s="1">
         <v>0.5</v>
@@ -3350,7 +4162,8 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.66900000000000004</v>
       </c>
       <c r="G17" s="1">
         <v>0.5</v>
@@ -3411,7 +4224,8 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="F18" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.7</v>
       </c>
       <c r="G18" s="1">
         <v>0.5</v>
@@ -3472,7 +4286,8 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.17399999999999999</v>
       </c>
       <c r="G19" s="1">
         <v>0.5</v>
@@ -3533,7 +4348,8 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="F20" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G20" s="1">
         <v>0.5</v>
@@ -3594,7 +4410,8 @@
         <v>0.67400000000000004</v>
       </c>
       <c r="F21" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G21" s="1">
         <v>0.5</v>
@@ -3655,6 +4472,7 @@
         <v>0.5</v>
       </c>
       <c r="F22" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
         <v>0.5</v>
       </c>
       <c r="G22" s="1">
@@ -3716,7 +4534,8 @@
         <v>0.57099999999999995</v>
       </c>
       <c r="F23" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.82599999999999996</v>
       </c>
       <c r="G23" s="1">
         <v>0.5</v>
@@ -3776,8 +4595,9 @@
         <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 2]],ptSpread,0))</f>
         <v>0.66900000000000004</v>
       </c>
-      <c r="F24" s="1">
-        <v>0.5</v>
+      <c r="F24" s="1" t="e">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>#N/A</v>
       </c>
       <c r="G24" s="1">
         <v>0.5</v>
@@ -3838,7 +4658,8 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="F25" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G25" s="1">
         <v>0.5</v>
@@ -3899,7 +4720,8 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.48599999999999999</v>
       </c>
       <c r="G26" s="1">
         <v>0.5</v>
@@ -3960,7 +4782,8 @@
         <v>0.3</v>
       </c>
       <c r="F27" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.316</v>
       </c>
       <c r="G27" s="1">
         <v>0.5</v>
@@ -4021,7 +4844,8 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F28" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G28" s="1">
         <v>0.5</v>
@@ -4082,7 +4906,8 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="F29" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G29" s="1">
         <v>0.5</v>
@@ -4143,6 +4968,7 @@
         <v>0.46</v>
       </c>
       <c r="F30" s="1">
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
         <v>0.5</v>
       </c>
       <c r="G30" s="1">
@@ -4204,7 +5030,8 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="F31" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G31" s="1">
         <v>0.5</v>
@@ -4265,7 +5092,8 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="F32" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.48599999999999999</v>
       </c>
       <c r="G32" s="1">
         <v>0.5</v>
@@ -4326,7 +5154,8 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F33" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G33" s="1">
         <v>0.5</v>
@@ -4387,7 +5216,8 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="F34" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G34" s="1">
         <v>0.5</v>
@@ -4448,7 +5278,8 @@
         <v>0.316</v>
       </c>
       <c r="F35" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.3</v>
       </c>
       <c r="G35" s="1">
         <v>0.5</v>
@@ -4509,7 +5340,8 @@
         <v>0.45</v>
       </c>
       <c r="F36" s="1">
-        <v>0.5</v>
+        <f ca="1">INDEX(ptWinProb,MATCH(Table1[[#This Row],[Week 3]],ptSpread,0))</f>
+        <v>0.45</v>
       </c>
       <c r="G36" s="1">
         <v>0.5</v>
@@ -4556,7 +5388,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:T36">
-    <cfRule type="top10" dxfId="4" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4567,6 +5399,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4583,9 +5416,9 @@
       <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="8" t="e">
         <f ca="1">PRODUCT(C39:S39)</f>
-        <v>2.3358731506347655E-5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -6525,13 +7358,13 @@
         <f ca="1">SUMPRODUCT(Table3[Week 2],Table2[Week 2])</f>
         <v>0.74099999999999999</v>
       </c>
-      <c r="F39">
-        <f>SUMPRODUCT(Table3[Week 3],Table2[Week 3])</f>
-        <v>0.5</v>
-      </c>
-      <c r="G39">
-        <f>SUMPRODUCT(Table3[Week 3],Table2[Week 3])</f>
-        <v>0.5</v>
+      <c r="F39" t="e">
+        <f ca="1">SUMPRODUCT(Table3[Week 3],Table2[Week 3])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" t="e">
+        <f ca="1">SUMPRODUCT(Table3[Week 3],Table2[Week 3])</f>
+        <v>#N/A</v>
       </c>
       <c r="H39">
         <f>SUMPRODUCT(Table3[Week 4],Table2[Week 4])</f>
@@ -6598,61 +7431,61 @@
         <f t="shared" ref="E40:S40" ca="1" si="0">D40*E39</f>
         <v>0.38270945699999998</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19135472849999999</v>
-      </c>
-      <c r="G40">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5677364249999994E-2</v>
-      </c>
-      <c r="H40">
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7838682124999997E-2</v>
-      </c>
-      <c r="I40">
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3919341062499998E-2</v>
-      </c>
-      <c r="J40">
+        <v>#N/A</v>
+      </c>
+      <c r="J40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1959670531249999E-2</v>
-      </c>
-      <c r="K40">
+        <v>#N/A</v>
+      </c>
+      <c r="K40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9798352656249996E-3</v>
-      </c>
-      <c r="L40">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9899176328124998E-3</v>
-      </c>
-      <c r="M40">
+        <v>#N/A</v>
+      </c>
+      <c r="M40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4949588164062499E-3</v>
-      </c>
-      <c r="N40">
+        <v>#N/A</v>
+      </c>
+      <c r="N40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4747940820312495E-4</v>
-      </c>
-      <c r="O40">
+        <v>#N/A</v>
+      </c>
+      <c r="O40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7373970410156248E-4</v>
-      </c>
-      <c r="P40">
+        <v>#N/A</v>
+      </c>
+      <c r="P40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8686985205078124E-4</v>
-      </c>
-      <c r="Q40">
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3434926025390619E-5</v>
-      </c>
-      <c r="R40">
+        <v>#N/A</v>
+      </c>
+      <c r="R40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6717463012695309E-5</v>
-      </c>
-      <c r="S40">
+        <v>#N/A</v>
+      </c>
+      <c r="S40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3358731506347655E-5</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -6665,6 +7498,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7160,6 +7994,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7521,7 +8356,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A815F41B-5065-4221-85D8-B810B85F75CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA0A3B2-D04C-4CCC-A9B4-4BA3922D6DD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
